--- a/Verb_paradigm.xlsx
+++ b/Verb_paradigm.xlsx
@@ -882,7 +882,7 @@
     <t>imperative fut</t>
   </si>
   <si>
-    <t>imper-fut</t>
+    <t>imper_fut</t>
   </si>
   <si>
     <t>karisa</t>
